--- a/CSV/Database.xlsx
+++ b/CSV/Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AypReg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AypReg\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A6D996-9B8C-4C10-A3C0-375C2DB2828A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2745DDFF-453A-44BC-BFB9-946EB565F7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9FCF1C3-DEF3-4419-8A81-CB9D909F9212}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>NorSan Circuit</t>
+  </si>
+  <si>
+    <t>Charis Community Alliance Evangelical Church</t>
+  </si>
+  <si>
+    <t>Elizielyn Bernal</t>
+  </si>
+  <si>
+    <t>Eli</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +470,7 @@
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
@@ -488,21 +497,45 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="2"/>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>39729</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
       <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <dataValidations xWindow="220" yWindow="393" count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name of Church" prompt="Note: Do not abbreviate the name of your church. _x000a__x000a_Allowed: Polomolok Alliance Church_x000a_Not: PAC" sqref="E1:E1048576" xr:uid="{8B085516-AE77-4FE7-81DC-790C18F11001}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Contact Number" prompt="This is optional. But in case of an emergency. Please include. " sqref="C1:C1048576" xr:uid="{EA56A6F4-C3E3-4795-9DAA-C4C6EDE068FE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name : Reminders" prompt="Note:_x000a_Format: &gt; First Name Surname_x000a_&gt;Do not include your middle name (e.g. A.)_x000a_&gt; If your surname composed of 2 names (e.g. Dela Cruz) please merge them into one. (From: Dela Cruz to: DelaCruz)_x000a__x000a_example: Juan Jr. Martinez_x000a_" sqref="A1:A1048576" xr:uid="{3CE47F8D-661F-4B85-A365-63EF745A62DC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name : Reminders" prompt="Note:_x000a_Format: &gt; First Name Surname_x000a_&gt;Do not include your middle name (e.g. A.)_x000a_&gt; If your surname composed of 2 names (e.g. Dela Cruz) please merge them into one. (From: Dela Cruz to: DelaCruz)_x000a__x000a_example: Juan Jr. Martinez_x000a_" sqref="A1:A2 A4:A1048576" xr:uid="{3CE47F8D-661F-4B85-A365-63EF745A62DC}"/>
     <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" promptTitle="NickName" prompt="Minimum of Characters is 2 to 7. " sqref="B1:B1048576" xr:uid="{42EC9688-5B04-4A1D-A538-87C19662D9FB}">
       <formula1>2</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="DATE OF BIRTH" prompt="This will determine the age of the YP._x000a__x000a_Format: mm/dd/yyyy" sqref="D1:D1048576" xr:uid="{461429D7-D6FD-423A-9CC8-5EC4C289B793}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="DATE OF BIRTH" prompt="This will determine the age of the YP._x000a__x000a_Format: mm/dd/yyyy" sqref="D1:D1048576 A3" xr:uid="{461429D7-D6FD-423A-9CC8-5EC4C289B793}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
